--- a/Last Active Wars.xlsx
+++ b/Last Active Wars.xlsx
@@ -34,7 +34,7 @@
     <t>8307828</t>
   </si>
   <si>
-    <t>8308056</t>
+    <t>8310209</t>
   </si>
   <si>
     <t>8309455</t>
@@ -64,7 +64,7 @@
     <t>8309498</t>
   </si>
   <si>
-    <t>8306922</t>
+    <t>8310311</t>
   </si>
   <si>
     <t>8308279</t>
@@ -76,7 +76,7 @@
     <t>8308051</t>
   </si>
   <si>
-    <t>8308956</t>
+    <t>8310313</t>
   </si>
   <si>
     <t>8307103</t>
@@ -103,7 +103,7 @@
     <t>8303680</t>
   </si>
   <si>
-    <t>8305509</t>
+    <t>8309892</t>
   </si>
   <si>
     <t>8309494</t>
@@ -115,7 +115,7 @@
     <t>8306501</t>
   </si>
   <si>
-    <t>8306505</t>
+    <t>8310248</t>
   </si>
   <si>
     <t>8307512</t>
@@ -136,16 +136,16 @@
     <t>8307384</t>
   </si>
   <si>
-    <t>8309398</t>
+    <t>8309896</t>
   </si>
   <si>
     <t>8307501</t>
   </si>
   <si>
-    <t>8305956</t>
-  </si>
-  <si>
-    <t>8303589</t>
+    <t>8309957</t>
+  </si>
+  <si>
+    <t>8309832</t>
   </si>
   <si>
     <t>8306217</t>
@@ -157,7 +157,7 @@
     <t>8305195</t>
   </si>
   <si>
-    <t>8302520</t>
+    <t>8310290</t>
   </si>
   <si>
     <t>8308766</t>
@@ -241,7 +241,7 @@
     <t>8306465</t>
   </si>
   <si>
-    <t>8304362</t>
+    <t>8309850</t>
   </si>
   <si>
     <t>8306543</t>
@@ -253,10 +253,10 @@
     <t>8307039</t>
   </si>
   <si>
-    <t>8306884</t>
-  </si>
-  <si>
-    <t>8304866</t>
+    <t>8309847</t>
+  </si>
+  <si>
+    <t>8309845</t>
   </si>
   <si>
     <t>8306878</t>
@@ -265,13 +265,13 @@
     <t>8308726</t>
   </si>
   <si>
-    <t>8308085</t>
+    <t>8309976</t>
   </si>
   <si>
     <t>8307180</t>
   </si>
   <si>
-    <t>8308376</t>
+    <t>8310105</t>
   </si>
   <si>
     <t>8308360</t>
@@ -289,7 +289,7 @@
     <t>8306455</t>
   </si>
   <si>
-    <t>8299880</t>
+    <t>8309878</t>
   </si>
   <si>
     <t>8308948</t>
@@ -298,10 +298,10 @@
     <t>8308562</t>
   </si>
   <si>
-    <t>8306516</t>
-  </si>
-  <si>
-    <t>8308378</t>
+    <t>8309787</t>
+  </si>
+  <si>
+    <t>8310107</t>
   </si>
   <si>
     <t>8306294</t>
@@ -310,7 +310,7 @@
     <t>8306909</t>
   </si>
   <si>
-    <t>8306098</t>
+    <t>8310099</t>
   </si>
   <si>
     <t>8295211</t>
@@ -328,10 +328,10 @@
     <t>8306238</t>
   </si>
   <si>
-    <t>8306080</t>
-  </si>
-  <si>
-    <t>8306205</t>
+    <t>8310440</t>
+  </si>
+  <si>
+    <t>8310096</t>
   </si>
   <si>
     <t>8308736</t>
@@ -343,7 +343,7 @@
     <t>8303161</t>
   </si>
   <si>
-    <t>8307410</t>
+    <t>8310213</t>
   </si>
   <si>
     <t>8305884</t>
@@ -367,7 +367,7 @@
     <t>8306040</t>
   </si>
   <si>
-    <t>8307752</t>
+    <t>8310236</t>
   </si>
   <si>
     <t>8304745</t>
@@ -394,7 +394,7 @@
     <t>8308742</t>
   </si>
   <si>
-    <t>8306621</t>
+    <t>8310216</t>
   </si>
   <si>
     <t>8307382</t>
@@ -418,10 +418,10 @@
     <t>8301915</t>
   </si>
   <si>
-    <t>8308317</t>
-  </si>
-  <si>
-    <t>8308359</t>
+    <t>8310332</t>
+  </si>
+  <si>
+    <t>8310102</t>
   </si>
   <si>
     <t>8305389</t>
@@ -445,7 +445,7 @@
     <t>8306781</t>
   </si>
   <si>
-    <t>8309402</t>
+    <t>8310098</t>
   </si>
   <si>
     <t>8306151</t>
@@ -463,7 +463,7 @@
     <t>8301101</t>
   </si>
   <si>
-    <t>8309560</t>
+    <t>8309911</t>
   </si>
   <si>
     <t>8307411</t>
@@ -484,7 +484,7 @@
     <t>8307527</t>
   </si>
   <si>
-    <t>8309640</t>
+    <t>8310023</t>
   </si>
   <si>
     <t>8303934</t>
